--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_23_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_23_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>213124.9838339172</v>
+        <v>226851.3419713357</v>
       </c>
     </row>
     <row r="7">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>491565.803230223</v>
+      </c>
+      <c r="C2" t="n">
         <v>491565.8032302229</v>
-      </c>
-      <c r="C2" t="n">
-        <v>491565.8032302228</v>
       </c>
       <c r="D2" t="n">
         <v>491565.803230223</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>73265.85600413971</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="F4" t="n">
-        <v>73265.85600413971</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="G4" t="n">
-        <v>73265.85600413971</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="H4" t="n">
-        <v>73265.85600413971</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="I4" t="n">
-        <v>73265.85600413971</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="J4" t="n">
-        <v>73265.85600413971</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="K4" t="n">
-        <v>73265.85600413971</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="L4" t="n">
-        <v>73265.85600413971</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="M4" t="n">
-        <v>73265.85600413971</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="N4" t="n">
-        <v>73265.85600413971</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="O4" t="n">
-        <v>73265.85600413971</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="P4" t="n">
-        <v>73265.85600413971</v>
+        <v>73265.8560041397</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9677.756701508362</v>
+        <v>-9677.756701508268</v>
       </c>
       <c r="C6" t="n">
-        <v>-9677.756701508421</v>
+        <v>-9677.756701508326</v>
       </c>
       <c r="D6" t="n">
-        <v>-9677.756701508304</v>
+        <v>-9677.756701508268</v>
       </c>
       <c r="E6" t="n">
-        <v>-72792.81032931173</v>
+        <v>-72792.81032931177</v>
       </c>
       <c r="F6" t="n">
-        <v>60307.18967068824</v>
+        <v>60307.18967068828</v>
       </c>
       <c r="G6" t="n">
-        <v>60307.18967068827</v>
+        <v>60307.18967068828</v>
       </c>
       <c r="H6" t="n">
-        <v>60307.18967068827</v>
+        <v>60307.18967068828</v>
       </c>
       <c r="I6" t="n">
-        <v>60307.18967068827</v>
+        <v>60307.18967068828</v>
       </c>
       <c r="J6" t="n">
-        <v>60307.18967068827</v>
+        <v>60307.18967068828</v>
       </c>
       <c r="K6" t="n">
-        <v>60307.18967068827</v>
+        <v>60307.18967068828</v>
       </c>
       <c r="L6" t="n">
-        <v>60307.18967068827</v>
+        <v>60307.18967068828</v>
       </c>
       <c r="M6" t="n">
-        <v>60307.18967068827</v>
+        <v>60307.18967068828</v>
       </c>
       <c r="N6" t="n">
-        <v>60307.18967068827</v>
+        <v>60307.18967068828</v>
       </c>
       <c r="O6" t="n">
-        <v>60307.18967068827</v>
+        <v>60307.18967068828</v>
       </c>
       <c r="P6" t="n">
-        <v>60307.18967068827</v>
+        <v>60307.18967068828</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_23_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_23_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>226851.3419713357</v>
+        <v>143065.9402097111</v>
       </c>
     </row>
     <row r="7">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>491565.803230223</v>
+        <v>491565.8032302231</v>
       </c>
       <c r="C2" t="n">
-        <v>491565.8032302229</v>
+        <v>491565.8032302231</v>
       </c>
       <c r="D2" t="n">
-        <v>491565.803230223</v>
+        <v>491565.8032302231</v>
       </c>
       <c r="E2" t="n">
         <v>137184.6577798363</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9677.756701508268</v>
+        <v>-9721.892480189275</v>
       </c>
       <c r="C6" t="n">
-        <v>-9677.756701508326</v>
+        <v>-9721.892480189275</v>
       </c>
       <c r="D6" t="n">
-        <v>-9677.756701508268</v>
+        <v>-9721.892480189275</v>
       </c>
       <c r="E6" t="n">
-        <v>-72792.81032931177</v>
+        <v>-87602.82716842568</v>
       </c>
       <c r="F6" t="n">
-        <v>60307.18967068828</v>
+        <v>45497.17283157437</v>
       </c>
       <c r="G6" t="n">
-        <v>60307.18967068828</v>
+        <v>45497.17283157437</v>
       </c>
       <c r="H6" t="n">
-        <v>60307.18967068828</v>
+        <v>45497.17283157437</v>
       </c>
       <c r="I6" t="n">
-        <v>60307.18967068828</v>
+        <v>45497.17283157437</v>
       </c>
       <c r="J6" t="n">
-        <v>60307.18967068828</v>
+        <v>45497.17283157437</v>
       </c>
       <c r="K6" t="n">
-        <v>60307.18967068828</v>
+        <v>45497.17283157437</v>
       </c>
       <c r="L6" t="n">
-        <v>60307.18967068828</v>
+        <v>45497.17283157437</v>
       </c>
       <c r="M6" t="n">
-        <v>60307.18967068828</v>
+        <v>45497.17283157437</v>
       </c>
       <c r="N6" t="n">
-        <v>60307.18967068828</v>
+        <v>45497.17283157437</v>
       </c>
       <c r="O6" t="n">
-        <v>60307.18967068828</v>
+        <v>45497.17283157437</v>
       </c>
       <c r="P6" t="n">
-        <v>60307.18967068828</v>
+        <v>45497.17283157437</v>
       </c>
     </row>
   </sheetData>
